--- a/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 6_.xlsx
+++ b/data/Subset 1/HILLARY LEWIS-WOLFSEN pt 6_.xlsx
@@ -475,12 +475,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Let's look at another student answer.</t>
+          <t>Let's look at another STUDENT 1nswer.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>STUDENT B</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>STUDENT A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1887,7 +1887,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2091,7 +2091,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2166,7 +2166,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3003,7 +3003,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>STUDENT</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>HILLARY LEWIS-WOLFSEN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
